--- a/3. Case Catalogue _ SoR _ Building Standards.xlsx
+++ b/3. Case Catalogue _ SoR _ Building Standards.xlsx
@@ -12,34 +12,18 @@
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'1. Keyword search'!$A$1:$AB$350</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'3. Case catalogue'!$A$1:$S$32</definedName>
-    <definedName hidden="1" localSheetId="3" name="Z_2B2C025A_F5D8_42BA_961B_5CC18A7CD471_.wvu.FilterData">'3. Case catalogue'!$A$1:$S$32</definedName>
-    <definedName hidden="1" localSheetId="3" name="Z_FB25DBC9_AECB_4A90_8944_45ACB10A8677_.wvu.FilterData">'3. Case catalogue'!$A$1:$S$32</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_5A59D258_7934_405F_92B3_62A0BDF33DB7_.wvu.FilterData">'3. Case catalogue'!$A$1:$S$32</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_E8523430_1F37_48DF_9B68_A8A7416EFA8E_.wvu.FilterData">'3. Case catalogue'!$A$1:$S$32</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FB25DBC9-AECB-4A90-8944-45ACB10A8677}" name="RR"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2B2C025A-F5D8-42BA-961B-5CC18A7CD471}" name="BM"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5A59D258-7934-405F-92B3-62A0BDF33DB7}" name="RR"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E8523430-1F37-48DF-9B68-A8A7416EFA8E}" name="BM"/>
   </customWorkbookViews>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="B8">
-      <text>
-        <t xml:space="preserve">either move this to the preceding column or have a dedicated row for the methodology. In the latter case, just add one line "The dataset catalogues x relevant Supreme Court judgements form 20xx-20yy" to the purpose row
-	-Prisha Saxena</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6038,8 +6022,7 @@
     <hyperlink display="3. Case catalogue: provides all SC judgments after 2010 analysed in the State of Regulation report. For each case, we record case citation, year of the first litigation, the date of judgement by the SC, case title, statute/s referred to, a summary of the judgement, parties involved (appellants and respondents), grounds for contest, relief sought by the appellants, judgement by the SC, the winning party, the number of years the litigation went on for, and if the case judgement mentions building standards like ground coverage, setbacks, parking, and Floor Area Ratio (FAR)/Floor Space Index (FSI), and open space requirement." location="'3. Case catalogue'!A1" ref="B6"/>
     <hyperlink display="4. Summary statistics: provides summary statistics regarding the judgments in the catalogue." location="'4. Summary statistics'!A1" ref="B7"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37573,10 +37556,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -37774,7 +37754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="46" t="s">
         <v>724</v>
       </c>
@@ -37834,7 +37814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="46" t="s">
         <v>734</v>
       </c>
@@ -37894,7 +37874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="46" t="s">
         <v>742</v>
       </c>
@@ -38014,7 +37994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="46" t="s">
         <v>756</v>
       </c>
@@ -38074,7 +38054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="46" t="s">
         <v>762</v>
       </c>
@@ -38194,7 +38174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="46" t="s">
         <v>771</v>
       </c>
@@ -38254,7 +38234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="46" t="s">
         <v>778</v>
       </c>
@@ -38314,7 +38294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="46" t="s">
         <v>785</v>
       </c>
@@ -38434,7 +38414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="46" t="s">
         <v>795</v>
       </c>
@@ -38494,7 +38474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="46" t="s">
         <v>800</v>
       </c>
@@ -38554,7 +38534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="46" t="s">
         <v>806</v>
       </c>
@@ -38614,7 +38594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="46" t="s">
         <v>814</v>
       </c>
@@ -38674,7 +38654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="46" t="s">
         <v>820</v>
       </c>
@@ -38734,7 +38714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="46" t="s">
         <v>826</v>
       </c>
@@ -38914,7 +38894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="46" t="s">
         <v>844</v>
       </c>
@@ -39154,7 +39134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="46" t="s">
         <v>867</v>
       </c>
@@ -39214,7 +39194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="46" t="s">
         <v>873</v>
       </c>
@@ -39274,7 +39254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="46" t="s">
         <v>879</v>
       </c>
@@ -39334,7 +39314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="46" t="s">
         <v>884</v>
       </c>
@@ -39394,7 +39374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="46" t="s">
         <v>889</v>
       </c>
@@ -39454,7 +39434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="46" t="s">
         <v>894</v>
       </c>
@@ -39515,16 +39495,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$S$32">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Adherence to land use norms"/>
-        <filter val="Adherence to regulations protecting monuments, historical areas, environment"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$S$32"/>
   <customSheetViews>
-    <customSheetView guid="{FB25DBC9-AECB-4A90-8944-45ACB10A8677}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5A59D258-7934-405F-92B3-62A0BDF33DB7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$S$32">
         <filterColumn colId="6">
           <filters>
@@ -39538,25 +39511,25 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{2B2C025A-F5D8-42BA-961B-5CC18A7CD471}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E8523430-1F37-48DF-9B68-A8A7416EFA8E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$S$32"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K32">
+      <formula1>"Builder,Authority ,Neighbour ,Builder + Authority ,NA,Owner,Builder + Owner,Owner + Auhority"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:R32">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L32">
       <formula1>"Builder,Authority,Neighbour,Builder+Authority,NA,Owner,Owner + Authority,Builder + Owner,Authority + Government Party"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M32">
-      <formula1>"Builder,Authority,Neighbour ,Unclear,NA,Owner,Builder+Authority,Builder+Owner"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J32">
       <formula1>"Private party by authority,Authority by government party,Authority by private party,Government party by authority"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K32">
-      <formula1>"Builder,Authority ,Neighbour ,Builder + Authority ,NA,Owner,Builder + Owner,Owner + Auhority"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M32">
+      <formula1>"Builder,Authority,Neighbour ,Unclear,NA,Owner,Builder+Authority,Builder+Owner"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
